--- a/08-04-24 to 08-10-24 Milwaukee Schedule Copy.xlsx
+++ b/08-04-24 to 08-10-24 Milwaukee Schedule Copy.xlsx
@@ -2799,7 +2799,7 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t xml:space="preserve">*NEW HOMETOWN GROCERS </t>
+          <t>SUPER RON'S FOOD CENTER, PULASKI - LIFO</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2854,7 +2854,7 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>SUPER RON'S FOOD CENTER, PULASKI - LIFO</t>
+          <t>960 CTY RD B</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -2917,7 +2917,7 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>960 CTY RD B</t>
+          <t>https://maps.app.goo.gl/6H35UioEYNyvj5gD6</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -2976,7 +2976,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/6H35UioEYNyvj5gD6</t>
+          <t>4:50 am meet for Cristi/Yvette at Grafton Park n Ride (Lashaun picking up)</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -3035,7 +3035,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>4:50 am meet for Cristi/Yvette at Grafton Park n Ride (Lashaun picking up)</t>
+          <t xml:space="preserve">*NEW HOMETOWN GROCERS </t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>*PERISHABLE INVENTORY</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -3653,7 +3653,7 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>METCALFE'S MARKET #560, WAUWATOSA</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -3720,7 +3720,7 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>METCALFE'S MARKET #560, WAUWATOSA</t>
+          <t>6700 W STATE ST</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -3787,7 +3787,7 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>6700 W STATE ST</t>
+          <t>https://goo.gl/maps/hbUxBiCRdt72</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -3854,7 +3854,7 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/hbUxBiCRdt72</t>
+          <t>*PERISHABLE INVENTORY</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>

--- a/08-04-24 to 08-10-24 Milwaukee Schedule Copy.xlsx
+++ b/08-04-24 to 08-10-24 Milwaukee Schedule Copy.xlsx
@@ -2799,7 +2799,7 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>SUPER RON'S FOOD CENTER, PULASKI - LIFO</t>
+          <t xml:space="preserve">*NEW HOMETOWN GROCERS </t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -2854,7 +2854,7 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>960 CTY RD B</t>
+          <t>SUPER RON'S FOOD CENTER, PULASKI - LIFO</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -2917,7 +2917,7 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/6H35UioEYNyvj5gD6</t>
+          <t>960 CTY RD B</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -2976,7 +2976,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>4:50 am meet for Cristi/Yvette at Grafton Park n Ride (Lashaun picking up)</t>
+          <t>https://maps.app.goo.gl/6H35UioEYNyvj5gD6</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -3035,7 +3035,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t xml:space="preserve">*NEW HOMETOWN GROCERS </t>
+          <t>4:50 am meet for Cristi/Yvette at Grafton Park n Ride (Lashaun picking up)</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>*PERISHABLE INVENTORY</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -3653,7 +3653,7 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>METCALFE'S MARKET #560, WAUWATOSA</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -3720,7 +3720,7 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>6700 W STATE ST</t>
+          <t>METCALFE'S MARKET #560, WAUWATOSA</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -3787,7 +3787,7 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/hbUxBiCRdt72</t>
+          <t>6700 W STATE ST</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -3854,7 +3854,7 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>*PERISHABLE INVENTORY</t>
+          <t>https://goo.gl/maps/hbUxBiCRdt72</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>

--- a/08-04-24 to 08-10-24 Milwaukee Schedule Copy.xlsx
+++ b/08-04-24 to 08-10-24 Milwaukee Schedule Copy.xlsx
@@ -1493,10 +1493,14 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Help Ashley if needed</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
@@ -1568,14 +1572,10 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Stephanie</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
@@ -1793,7 +1793,11 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
@@ -1866,7 +1870,7 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1941,7 +1945,7 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>PIGGLY WIGGLY #071, MILWAUKEE</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
@@ -2020,7 +2024,7 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #071, MILWAUKEE</t>
+          <t>123 W OKLAHOMA AVE</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -2088,7 +2092,7 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>123 W OKLAHOMA AVE</t>
+          <t>https://goo.gl/maps/yCWZ2yEy83T2</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -2141,11 +2145,7 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/yCWZ2yEy83T2</t>
-        </is>
-      </c>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
@@ -2187,9 +2187,21 @@
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
@@ -2236,19 +2248,15 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
@@ -2299,15 +2307,19 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
@@ -2358,12 +2370,12 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2409,15 +2421,19 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
+          <t>Katie</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -2452,17 +2468,17 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>After Aurora</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -2515,12 +2531,12 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2566,12 +2582,12 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2611,21 +2627,9 @@
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Nagui</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
@@ -2670,21 +2674,9 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Serena</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
@@ -2738,7 +2730,11 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
@@ -2793,7 +2789,11 @@
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>DC5-ITEM LEVEL</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
@@ -2846,7 +2846,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>AURORA OUTPATIENT RX #1007, MILWAUKEE</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -2909,7 +2909,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>2906 S 20TH STREET</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -2968,7 +2968,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1007, MILWAUKEE</t>
+          <t>https://goo.gl/maps/QrfMANN6BGJ2</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -2976,7 +2976,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>4:50 am meet for Cristi/Yvette at Grafton Park n Ride (Lashaun picking up)</t>
+          <t>4:50 am meet for Cristi at Grafton Park n Ride (Lashaun picking up)</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -3025,11 +3025,7 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>2906 S 20TH STREET</t>
-        </is>
-      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
@@ -3091,13 +3087,21 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/QrfMANN6BGJ2</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Gold Camry available, Equip</t>
+        </is>
+      </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -3150,8 +3154,16 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
@@ -3213,21 +3225,9 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Gold Camry available, Equip</t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
@@ -3252,12 +3252,12 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Yvette</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>(w/ Carlie)</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P50" t="inlineStr"/>
@@ -3292,16 +3292,8 @@
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
@@ -3328,12 +3320,13 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
@@ -3373,7 +3366,11 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
@@ -3395,13 +3392,12 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P52" t="inlineStr"/>
@@ -3446,7 +3442,11 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>DC5-FINANCIAL</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -3519,7 +3519,7 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>METCALFE'S MARKET #560, WAUWATOSA</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -3531,12 +3531,12 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Yvette</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>*Grafton Park n Ride</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L54" t="inlineStr"/>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -3586,7 +3586,7 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6700 W STATE ST</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -3598,7 +3598,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3614,7 +3614,7 @@
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -3653,7 +3653,7 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>METCALFE'S MARKET #560, WAUWATOSA</t>
+          <t>https://goo.gl/maps/hbUxBiCRdt72</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -3665,7 +3665,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3674,21 +3674,9 @@
         </is>
       </c>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
@@ -3720,7 +3708,7 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>6700 W STATE ST</t>
+          <t>*PERISHABLE INVENTORY</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -3732,7 +3720,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -3741,21 +3729,9 @@
         </is>
       </c>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
@@ -3787,7 +3763,7 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/hbUxBiCRdt72</t>
+          <t>*Check in w/ Milwaukee Pig after finishing please</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -3799,7 +3775,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -3810,19 +3786,15 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>18)</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Serena</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t xml:space="preserve">6:00 AM START </t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
@@ -3852,11 +3824,7 @@
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>*PERISHABLE INVENTORY</t>
-        </is>
-      </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
@@ -3866,7 +3834,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -3875,21 +3843,13 @@
         </is>
       </c>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>19)</t>
-        </is>
-      </c>
+      <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
@@ -3919,9 +3879,21 @@
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Red Van available, Equip</t>
+        </is>
+      </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
@@ -3930,7 +3902,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -3940,7 +3912,11 @@
       </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>AURORA OUTPATIENT RX #1130, NEW BERLIN</t>
+        </is>
+      </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
@@ -3972,19 +3948,15 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Red Van available, Equip</t>
-        </is>
-      </c>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
@@ -3993,7 +3965,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4003,7 +3975,11 @@
       </c>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>14555 W NATIONAL AVE  SUITE 100</t>
+        </is>
+      </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr">
@@ -4035,40 +4011,24 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t>https://goo.gl/maps/JM6SbeyWAuC2</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -4088,16 +4048,8 @@
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
@@ -4105,11 +4057,7 @@
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL </t>
-        </is>
-      </c>
+      <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
@@ -4135,13 +4083,21 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1130, NEW BERLIN</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
@@ -4171,11 +4127,7 @@
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>14555 W NATIONAL AVE  SUITE 100</t>
-        </is>
-      </c>
+      <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
@@ -4206,11 +4158,7 @@
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/JM6SbeyWAuC2</t>
-        </is>
-      </c>
+      <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
@@ -4241,7 +4189,11 @@
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
@@ -4271,21 +4223,13 @@
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
+      <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
@@ -4381,11 +4325,7 @@
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
@@ -4412,11 +4352,7 @@
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>

--- a/08-04-24 to 08-10-24 Milwaukee Schedule Copy.xlsx
+++ b/08-04-24 to 08-10-24 Milwaukee Schedule Copy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y74"/>
+  <dimension ref="A1:Y73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2005,12 +2005,13 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="X28" t="inlineStr"/>
@@ -2033,21 +2034,9 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
@@ -2072,13 +2061,12 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X29" t="inlineStr"/>
@@ -2121,21 +2109,9 @@
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
     </row>
@@ -2157,7 +2133,11 @@
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
@@ -2214,7 +2194,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
@@ -2226,7 +2206,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -2236,7 +2216,11 @@
       </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
@@ -2269,7 +2253,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>PICK #382 +RX, NEW BERLIN - NATIONAL AVE</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
@@ -2281,7 +2265,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -2293,7 +2277,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2332,31 +2316,19 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>PICK #382 +RX, NEW BERLIN - NATIONAL AVE</t>
+          <t>15445 W NATIONAL AVENUE</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>PICK #877, SOUTH MILWAUKEE</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2395,7 +2367,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>15445 W NATIONAL AVENUE</t>
+          <t>https://goo.gl/maps/CcGHp9MnkrB2</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2407,7 +2379,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>PICK #877, SOUTH MILWAUKEE</t>
+          <t>2901 S CHICAGO AVENUE</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2442,19 +2414,23 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/CcGHp9MnkrB2</t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>2901 S CHICAGO AVENUE</t>
+          <t>https://goo.gl/maps/xYaHQvY96kQ2</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2501,7 +2477,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>STORE RESETS-REMAPPED</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2509,7 +2485,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2517,7 +2493,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/xYaHQvY96kQ2</t>
+          <t>SET UP ON REG #1 OR 2 (FURTHEST FROM SELF C/O)</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2552,7 +2528,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>STORE RESETS-REMAPPED</t>
+          <t>5:15 am meet for Grafton Crew at Grafton Park n Ride</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2560,17 +2536,13 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>PICK #415 +RX, WAUKESHA-SUNSET WEST</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>SET UP ON REG #1 OR 2 (FURTHEST FROM SELF C/O)</t>
-        </is>
-      </c>
+      <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
@@ -2601,24 +2573,32 @@
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>5:15 am meet for Grafton Crew at Grafton Park n Ride</t>
-        </is>
-      </c>
+      <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>PICK #415 +RX, WAUKESHA-SUNSET WEST</t>
+          <t>1220 WEST SUNSET DR</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
     </row>
@@ -2639,33 +2619,41 @@
       </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>1220 WEST SUNSET DR</t>
+          <t>https://goo.gl/maps/oRdoVwf2Qut</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
     </row>
@@ -2688,36 +2676,36 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>(Driver)</t>
         </is>
       </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/oRdoVwf2Qut</t>
+          <t>SET UP ON REG #5</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2747,36 +2735,32 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Cristi</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>(Driver)</t>
+          <t>(w/ Carlie)</t>
         </is>
       </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>SET UP ON REG #5</t>
-        </is>
-      </c>
+      <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2806,32 +2790,40 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Cristi</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>(w/ Carlie)</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2861,40 +2853,36 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Joshua M</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -2924,36 +2912,36 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Joshua M</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Joshua M</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -2983,36 +2971,44 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Joshua M</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -3038,44 +3034,40 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>After Aurora</t>
+          <t>Supv Rx</t>
         </is>
       </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -3109,40 +3101,36 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -3184,36 +3172,40 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr"/>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Via</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -3247,40 +3239,45 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Via</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr"/>
+          <t>Annette</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Via</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -3315,48 +3312,52 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
+          <t>Katie</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
           <t>Eva</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr">
+      <c r="S51" t="inlineStr">
         <is>
           <t>@ Store,
 Rx</t>
         </is>
       </c>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Via</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
     </row>
@@ -3387,12 +3388,12 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -3403,29 +3404,28 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
@@ -3463,12 +3463,12 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -3479,12 +3479,12 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -3493,21 +3493,9 @@
         </is>
       </c>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
     </row>
@@ -3542,12 +3530,12 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -3558,12 +3546,12 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Keilah</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -3607,30 +3595,18 @@
         </is>
       </c>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Keilah</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -3680,12 +3656,12 @@
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -3729,18 +3705,26 @@
         </is>
       </c>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">6:00 AM START </t>
+        </is>
+      </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
@@ -3784,31 +3768,28 @@
         </is>
       </c>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="T58" t="inlineStr"/>
@@ -3846,25 +3827,24 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL </t>
+          <t>AURORA OUTPATIENT RX #1130, NEW BERLIN</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T59" t="inlineStr"/>
@@ -3914,19 +3894,19 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1130, NEW BERLIN</t>
+          <t>14555 W NATIONAL AVE  SUITE 100</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>18)</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
@@ -3977,26 +3957,14 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>14555 W NATIONAL AVE  SUITE 100</t>
+          <t>https://goo.gl/maps/JM6SbeyWAuC2</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
@@ -4026,11 +3994,7 @@
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/JM6SbeyWAuC2</t>
-        </is>
-      </c>
+      <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
@@ -4056,12 +4020,28 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7:00 AM START </t>
+        </is>
+      </c>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
@@ -4083,26 +4063,14 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t xml:space="preserve">7:00 AM START </t>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
@@ -4133,7 +4101,7 @@
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL </t>
+          <t>AURORA OUTPATIENT RX #1160, WAUKESHA</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
@@ -4158,13 +4126,17 @@
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1160, WAUKESHA</t>
+          <t>W231 N1440 CORPORATE CT, SUITE 101</t>
         </is>
       </c>
       <c r="S66" t="inlineStr"/>
@@ -4191,7 +4163,7 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -4199,7 +4171,7 @@
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr">
         <is>
-          <t>W231 N1440 CORPORATE CT, SUITE 101</t>
+          <t>https://goo.gl/maps/aredhDF1mHF2</t>
         </is>
       </c>
       <c r="S67" t="inlineStr"/>
@@ -4224,19 +4196,11 @@
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/aredhDF1mHF2</t>
-        </is>
-      </c>
+      <c r="R68" t="inlineStr"/>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
@@ -4262,9 +4226,21 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr"/>
@@ -4289,21 +4265,9 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
@@ -4356,7 +4320,11 @@
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
@@ -4385,7 +4353,7 @@
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="S73" t="inlineStr"/>
@@ -4396,37 +4364,6 @@
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr"/>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/08-04-24 to 08-10-24 Milwaukee Schedule Copy.xlsx
+++ b/08-04-24 to 08-10-24 Milwaukee Schedule Copy.xlsx
@@ -594,7 +594,11 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Optima oil change this day</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>

--- a/08-04-24 to 08-10-24 Milwaukee Schedule Copy.xlsx
+++ b/08-04-24 to 08-10-24 Milwaukee Schedule Copy.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y73"/>
+  <dimension ref="A1:Y74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,20 +536,52 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bags 5,6</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bag 5</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bags 1-4</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
@@ -563,20 +595,44 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lashaun </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bags 4,7,8</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Bags 5-8</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
@@ -590,15 +646,19 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Bag 5</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Optima oil change this day</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
@@ -606,8 +666,16 @@
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Bag 5</t>
+        </is>
+      </c>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
@@ -625,7 +693,11 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Optima oil change this day</t>
+        </is>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
@@ -647,48 +719,24 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5:30 AM MEET COLLEGE (SOUTHWEST)</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>4:30 AM MEET COLLEGE (SOUTH)</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:00 AM START  </t>
-        </is>
-      </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5:00 AM MEET COLLEGE (SOUTH) </t>
-        </is>
-      </c>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
@@ -698,10 +746,14 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:30 AM MEET COLLEGE (SOUTHWEST)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -709,7 +761,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K9" t="inlineStr"/>
@@ -717,7 +769,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:30 AM MEET COLLEGE (SOUTH)</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -725,7 +777,7 @@
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL  </t>
+          <t xml:space="preserve">6:00 AM START  </t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
@@ -733,7 +785,7 @@
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t xml:space="preserve">5:00 AM MEET COLLEGE (SOUTH) </t>
         </is>
       </c>
       <c r="W9" t="inlineStr"/>
@@ -748,7 +800,7 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -756,7 +808,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>PICK #360 +RX, FRANKLIN-76TH ST</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K10" t="inlineStr"/>
@@ -764,7 +816,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -772,7 +824,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>METRO #388 +RX, OCONOMOWOC-PABST FARMS</t>
+          <t xml:space="preserve">DC5-ITEM LEVEL  </t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -780,7 +832,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W10" t="inlineStr"/>
@@ -795,7 +847,7 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #009, RACINE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -803,7 +855,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>7201 S 76TH ST</t>
+          <t>PICK #360 +RX, FRANKLIN-76TH ST</t>
         </is>
       </c>
       <c r="K11" t="inlineStr"/>
@@ -811,7 +863,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>MARIANO'S #508, CHICAGO - MONROE &amp; HALSTED</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -819,7 +871,7 @@
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
         <is>
-          <t>1300 PABST FARMS CIRCLE</t>
+          <t>METRO #388 +RX, OCONOMOWOC-PABST FARMS</t>
         </is>
       </c>
       <c r="S11" t="inlineStr"/>
@@ -827,7 +879,7 @@
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
-          <t>MARIANO'S #521 +RX, BUFFALO GROVE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W11" t="inlineStr"/>
@@ -842,7 +894,7 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4011 DURAND AVE</t>
+          <t>PIGGLY WIGGLY #009, RACINE</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -850,7 +902,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/JN9x4FQbXDM2</t>
+          <t>7201 S 76TH ST</t>
         </is>
       </c>
       <c r="K12" t="inlineStr"/>
@@ -858,7 +910,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>40 S HALSTED ST</t>
+          <t>MARIANO'S #508, CHICAGO - MONROE &amp; HALSTED</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -866,7 +918,7 @@
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/Y3h3MKExFnS2</t>
+          <t>1300 PABST FARMS CIRCLE</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
@@ -874,7 +926,7 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
-          <t>450 W HALF DAY RD</t>
+          <t>MARIANO'S #521 +RX, BUFFALO GROVE</t>
         </is>
       </c>
       <c r="W12" t="inlineStr"/>
@@ -889,19 +941,23 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/AQTpgCC5MQm</t>
+          <t>4011 DURAND AVE</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/JN9x4FQbXDM2</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/3jdb6VMr5oD2</t>
+          <t>40 S HALSTED ST</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -909,7 +965,7 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>SET UP ON LAST REG TO THE LEFT WHEN YOU WALK IN TO STORE</t>
+          <t>https://goo.gl/maps/Y3h3MKExFnS2</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
@@ -917,7 +973,7 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/nj3eJAJHyT22</t>
+          <t>450 W HALF DAY RD</t>
         </is>
       </c>
       <c r="W13" t="inlineStr"/>
@@ -932,41 +988,37 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>STORE RESETS-REMAPPED</t>
+          <t>https://goo.gl/maps/AQTpgCC5MQm</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/3jdb6VMr5oD2</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
         <is>
-          <t>240228 - Pharmacist required all OTC to be counted with RX not center store</t>
+          <t>SET UP ON LAST REG TO THE LEFT WHEN YOU WALK IN TO STORE</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/nj3eJAJHyT22</t>
+        </is>
+      </c>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
@@ -977,64 +1029,44 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>STORE RESETS-REMAPPED</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Casey</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Rx</t>
+          <t>Sante Fe available, Equip</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
         <is>
-          <t>5:00 am meet for Carlie/Cristi at Grafton Park n Ride</t>
+          <t>240228 - Pharmacist required all OTC to be counted with RX not center store</t>
         </is>
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
     </row>
@@ -1043,64 +1075,63 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Curt</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
+          <t>Casey</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Rx</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Casey</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>5:00 am meet for Carlie/Cristi at Grafton Park n Ride</t>
+        </is>
+      </c>
       <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Casey</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="X16" t="inlineStr"/>
@@ -1113,77 +1144,64 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Casey</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Curt</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>Driver,
-Gold Camry</t>
-        </is>
-      </c>
+          <t>Casey</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr"/>
+          <t>Casey</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
     </row>
@@ -1194,68 +1212,74 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Curt</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t>Casey</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Driver,
+Gold Camry</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>(Driver)</t>
+          <t>Sante Fe available, Equip</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="W18" t="inlineStr"/>
@@ -1269,64 +1293,68 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Curt</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Cristi</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>(w/ Carlie)</t>
+          <t>(Driver)</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="W19" t="inlineStr"/>
@@ -1340,69 +1368,64 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr"/>
+          <t>Cristi</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>(w/ Carlie)</t>
+        </is>
+      </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W20" t="inlineStr"/>
@@ -1416,36 +1439,41 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -1456,32 +1484,27 @@
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>@ Store,
-Rx</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
     </row>
@@ -1492,40 +1515,36 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Help Ashley if needed</t>
-        </is>
-      </c>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Joshua M</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -1536,29 +1555,30 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="X22" t="inlineStr"/>
@@ -1571,40 +1591,40 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Help Ashley if needed</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Supv Rx</t>
-        </is>
-      </c>
+          <t>Joshua M</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -1615,29 +1635,24 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>@ Store,
-Rx</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
@@ -1653,30 +1668,42 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Stephanie</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -1687,28 +1714,29 @@
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -1730,24 +1758,24 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -1758,29 +1786,28 @@
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -1797,33 +1824,29 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -1834,28 +1857,29 @@
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -1874,31 +1898,31 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Via</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Keilah</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -1909,12 +1933,12 @@
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -1925,12 +1949,12 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -1949,35 +1973,31 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #071, MILWAUKEE</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Via</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Keilah</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -1988,12 +2008,12 @@
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2004,18 +2024,17 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X28" t="inlineStr"/>
@@ -2029,27 +2048,51 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>123 W OKLAHOMA AVE</t>
+          <t>PIGGLY WIGGLY #071, MILWAUKEE</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -2060,17 +2103,18 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="X29" t="inlineStr"/>
@@ -2084,7 +2128,7 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/yCWZ2yEy83T2</t>
+          <t>123 W OKLAHOMA AVE</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -2099,12 +2143,12 @@
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -2113,9 +2157,21 @@
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
     </row>
@@ -2125,33 +2181,29 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/yCWZ2yEy83T2</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -2171,26 +2223,14 @@
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2198,19 +2238,19 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -2220,11 +2260,7 @@
       </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
@@ -2236,20 +2272,24 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1120, FRANKLIN</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2257,19 +2297,19 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>PICK #382 +RX, NEW BERLIN - NATIONAL AVE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -2281,7 +2321,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2295,24 +2335,20 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>9200 W LOOMIS RD SUITE 210</t>
+          <t>AURORA OUTPATIENT RX #1120, FRANKLIN</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2320,19 +2356,31 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>15445 W NATIONAL AVENUE</t>
+          <t>PICK #382 +RX, NEW BERLIN - NATIONAL AVE</t>
         </is>
       </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>PICK #877, SOUTH MILWAUKEE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2346,12 +2394,12 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2363,7 +2411,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/PNn7y7HSYHT2</t>
+          <t>9200 W LOOMIS RD SUITE 210</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2371,7 +2419,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/CcGHp9MnkrB2</t>
+          <t>15445 W NATIONAL AVENUE</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -2383,7 +2431,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>2901 S CHICAGO AVENUE</t>
+          <t>PICK #877, SOUTH MILWAUKEE</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2397,44 +2445,44 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>After Aurora</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/PNn7y7HSYHT2</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>https://goo.gl/maps/CcGHp9MnkrB2</t>
         </is>
       </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/xYaHQvY96kQ2</t>
+          <t>2901 S CHICAGO AVENUE</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2448,12 +2496,12 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2462,26 +2510,14 @@
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>STORE RESETS-REMAPPED</t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2489,7 +2525,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2497,7 +2533,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1 OR 2 (FURTHEST FROM SELF C/O)</t>
+          <t>https://goo.gl/maps/xYaHQvY96kQ2</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2511,12 +2547,12 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2525,14 +2561,26 @@
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>5:15 am meet for Grafton Crew at Grafton Park n Ride</t>
+          <t>STORE RESETS-REMAPPED</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2540,13 +2588,17 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>PICK #415 +RX, WAUKESHA-SUNSET WEST</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>SET UP ON REG #1 OR 2 (FURTHEST FROM SELF C/O)</t>
+        </is>
+      </c>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
@@ -2558,12 +2610,12 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2577,32 +2629,24 @@
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>5:15 am meet for Grafton Crew at Grafton Park n Ride</t>
+        </is>
+      </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>1220 WEST SUNSET DR</t>
+          <t>PICK #415 +RX, WAUKESHA-SUNSET WEST</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
     </row>
@@ -2611,53 +2655,53 @@
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>8)</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Serena</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>4:30 AM MEET AT BAYSHORE</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/oRdoVwf2Qut</t>
+          <t>1220 WEST SUNSET DR</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
     </row>
@@ -2673,43 +2717,43 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>4:30 AM MEET AT BAYSHORE</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>(Driver)</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>SET UP ON REG #5</t>
+          <t>https://goo.gl/maps/oRdoVwf2Qut</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2722,49 +2766,49 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Cristi</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>(w/ Carlie)</t>
+          <t>(Driver)</t>
         </is>
       </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>SET UP ON REG #5</t>
+        </is>
+      </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2779,7 +2823,7 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -2787,47 +2831,39 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>SUPER RON'S FOOD CENTER, PULASKI - LIFO</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr"/>
+          <t>Cristi</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>(w/ Carlie)</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2842,7 +2878,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1007, MILWAUKEE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -2850,43 +2886,47 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>960 CTY RD B</t>
+          <t>SUPER RON'S FOOD CENTER, PULASKI - LIFO</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Joshua M</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -2901,7 +2941,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2906 S 20TH STREET</t>
+          <t>AURORA OUTPATIENT RX #1007, MILWAUKEE</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -2909,43 +2949,43 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/6H35UioEYNyvj5gD6</t>
+          <t>960 CTY RD B</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Joshua M</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Joshua M</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -2960,7 +3000,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/QrfMANN6BGJ2</t>
+          <t>2906 S 20TH STREET</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -2968,51 +3008,43 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>4:50 am meet for Cristi at Grafton Park n Ride (Lashaun picking up)</t>
+          <t>https://maps.app.goo.gl/6H35UioEYNyvj5gD6</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>After Aurora</t>
-        </is>
-      </c>
+          <t>Joshua M</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -3025,53 +3057,61 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/QrfMANN6BGJ2</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t xml:space="preserve">*NEW HOMETOWN GROCERS </t>
+          <t>4:50 am meet for Cristi at Grafton Park n Ride (Lashaun picking up)</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Supv Rx</t>
+          <t>After Aurora</t>
         </is>
       </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>After Aurora</t>
+        </is>
+      </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Robyn</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="W47" t="inlineStr"/>
@@ -3083,58 +3123,54 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Gold Camry available, Equip</t>
-        </is>
-      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">*NEW HOMETOWN GROCERS </t>
+        </is>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Robyn</t>
         </is>
       </c>
       <c r="W48" t="inlineStr"/>
@@ -3148,68 +3184,56 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Gold Camry available, Equip</t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Via</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W49" t="inlineStr"/>
@@ -3221,67 +3245,70 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Cristi</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>*Grafton Park n Ride</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Annette</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Via</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Via</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -3299,69 +3326,64 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Cristi</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Driver,
-Red Van</t>
+          <t>*Grafton Park n Ride</t>
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Via</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
     </row>
@@ -3371,33 +3393,34 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Katie</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -3408,28 +3431,29 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Jerry S</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
@@ -3448,31 +3472,31 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
@@ -3483,12 +3507,12 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Justin</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -3497,9 +3521,21 @@
         </is>
       </c>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
     </row>
@@ -3511,35 +3547,31 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>METCALFE'S MARKET #560, WAUWATOSA</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Jerry S</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -3550,12 +3582,12 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Keilah</t>
+          <t>Justin</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -3578,19 +3610,19 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>6700 W STATE ST</t>
+          <t>METCALFE'S MARKET #560, WAUWATOSA</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Jerry S</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -3599,18 +3631,30 @@
         </is>
       </c>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Keilah</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -3633,19 +3677,19 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/hbUxBiCRdt72</t>
+          <t>6700 W STATE ST</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Katie</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -3660,12 +3704,12 @@
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Marcia</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -3688,14 +3732,14 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>*PERISHABLE INVENTORY</t>
+          <t>https://goo.gl/maps/hbUxBiCRdt72</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3709,26 +3753,18 @@
         </is>
       </c>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:00 AM START </t>
-        </is>
-      </c>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Marcia</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
@@ -3751,14 +3787,14 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>*Check in w/ Milwaukee Pig after finishing please</t>
+          <t>*PERISHABLE INVENTORY</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3772,28 +3808,31 @@
         </is>
       </c>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL </t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T58" t="inlineStr"/>
@@ -3809,12 +3848,16 @@
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>*Check in w/ Milwaukee Pig after finishing please</t>
+        </is>
+      </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3831,24 +3874,25 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1130, NEW BERLIN</t>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>Taya</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="T59" t="inlineStr"/>
@@ -3863,25 +3907,13 @@
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Red Van available, Equip</t>
-        </is>
-      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3898,19 +3930,19 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>14555 W NATIONAL AVE  SUITE 100</t>
+          <t>AURORA OUTPATIENT RX #1130, NEW BERLIN</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>18)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
@@ -3932,19 +3964,23 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Red Van available, Equip</t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3961,14 +3997,27 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/JM6SbeyWAuC2</t>
+          <t>14555 W NATIONAL AVE  SUITE 100</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>@ Store,
+Until 12:00</t>
+        </is>
+      </c>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
@@ -3983,12 +4032,12 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -3998,7 +4047,11 @@
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/JM6SbeyWAuC2</t>
+        </is>
+      </c>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
@@ -4016,36 +4069,28 @@
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">7:00 AM START </t>
-        </is>
-      </c>
+      <c r="R63" t="inlineStr"/>
       <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
@@ -4067,14 +4112,26 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL </t>
+          <t xml:space="preserve">7:00 AM START </t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
@@ -4105,7 +4162,7 @@
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1160, WAUKESHA</t>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
@@ -4130,17 +4187,13 @@
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr">
         <is>
-          <t>W231 N1440 CORPORATE CT, SUITE 101</t>
+          <t>AURORA OUTPATIENT RX #1160, WAUKESHA</t>
         </is>
       </c>
       <c r="S66" t="inlineStr"/>
@@ -4167,7 +4220,7 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -4175,7 +4228,7 @@
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/aredhDF1mHF2</t>
+          <t>W231 N1440 CORPORATE CT, SUITE 101</t>
         </is>
       </c>
       <c r="S67" t="inlineStr"/>
@@ -4200,11 +4253,19 @@
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/aredhDF1mHF2</t>
+        </is>
+      </c>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr"/>
@@ -4230,21 +4291,9 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr"/>
@@ -4269,9 +4318,21 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
@@ -4324,11 +4385,7 @@
       <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr"/>
@@ -4357,7 +4414,7 @@
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="S73" t="inlineStr"/>
@@ -4368,6 +4425,37 @@
       <c r="X73" t="inlineStr"/>
       <c r="Y73" t="inlineStr"/>
     </row>
+    <row r="74">
+      <c r="A74" t="inlineStr"/>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
